--- a/Diagramme_Gantt.xlsx
+++ b/Diagramme_Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\Masters\Projet d'intégration avec Agile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+  <si>
+    <t>Matin</t>
+  </si>
+  <si>
+    <t>Après-midi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Matin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Après-midi</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -44,7 +56,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">    </t>
+      <t xml:space="preserve">                                </t>
     </r>
     <r>
       <rPr>
@@ -56,6 +68,30 @@
       </rPr>
       <t xml:space="preserve"> Dates</t>
     </r>
+  </si>
+  <si>
+    <t>Mise en place des outils utilisés</t>
+  </si>
+  <si>
+    <t>Documents technique des outils utilisés</t>
+  </si>
+  <si>
+    <t>QT interface 1</t>
+  </si>
+  <si>
+    <t>QT interface 2</t>
+  </si>
+  <si>
+    <t>Obtenir une caméra</t>
+  </si>
+  <si>
+    <t>Acquisition d'image et sauvegarde</t>
+  </si>
+  <si>
+    <t>Afficher le contour des pièces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprint 0</t>
   </si>
 </sst>
 </file>
@@ -85,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +146,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -119,7 +167,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -132,23 +180,105 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -157,36 +287,191 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,299 +754,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="30">
+        <v>43441</v>
+      </c>
+      <c r="C2" s="14">
+        <v>43444</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="6">
+        <v>43445</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6">
+        <v>43446</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6">
+        <v>43447</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6">
+        <v>43448</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="O2" s="18">
+        <v>43451</v>
+      </c>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="18">
+        <v>43452</v>
+      </c>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18">
+        <v>43453</v>
+      </c>
+      <c r="T2" s="19"/>
+      <c r="U2" s="18">
+        <v>43454</v>
+      </c>
+      <c r="V2" s="19"/>
+      <c r="W2" s="18">
+        <v>43455</v>
+      </c>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>43444</v>
-      </c>
-      <c r="C3" s="5">
-        <v>43445</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43446</v>
-      </c>
-      <c r="E3" s="5">
-        <v>43447</v>
-      </c>
-      <c r="F3" s="5">
-        <v>43448</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
         <v>43449</v>
       </c>
-      <c r="H3" s="5">
+      <c r="N3" s="16">
         <v>43450</v>
       </c>
-      <c r="I3" s="5">
-        <v>43451</v>
-      </c>
-      <c r="J3" s="5">
-        <v>43452</v>
-      </c>
-      <c r="K3" s="5">
-        <v>43453</v>
-      </c>
-      <c r="L3" s="5">
-        <v>43454</v>
-      </c>
-      <c r="M3" s="5">
-        <v>43455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="1"/>
+      <c r="O3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+    </row>
+    <row r="5" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="21"/>
+    </row>
+    <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="21"/>
+    </row>
+    <row r="7" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="21"/>
+    </row>
+    <row r="8" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="21"/>
+    </row>
+    <row r="9" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="1:24" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
